--- a/BTLJavaFX/log.xlsx
+++ b/BTLJavaFX/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Time</t>
   </si>
@@ -77,6 +77,81 @@
   </si>
   <si>
     <t>19-10-2025 22:20:20</t>
+  </si>
+  <si>
+    <t>20-10-2025 07:30:49</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>20-10-2025 07:31:06</t>
+  </si>
+  <si>
+    <t>20-10-2025 07:31:11</t>
+  </si>
+  <si>
+    <t>20-10-2025 07:31:14</t>
+  </si>
+  <si>
+    <t>20-10-2025 07:38:38</t>
+  </si>
+  <si>
+    <t>20-10-2025 07:38:53</t>
+  </si>
+  <si>
+    <t>20-10-2025 07:38:55</t>
+  </si>
+  <si>
+    <t>20-10-2025 07:39:34</t>
+  </si>
+  <si>
+    <t>20-10-2025 07:39:49</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:17:49</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:18:13</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:38:14</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:39:39</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:53:32</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:53:45</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: Đặng Thị Thúy (Staff)</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:53:53</t>
+  </si>
+  <si>
+    <t>Quản lý xóa nhân viên: Đặng Thị Thúy</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:54:36</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:54:51</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: Phạm Thị Thúy (Staff)</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:54:55</t>
+  </si>
+  <si>
+    <t>20-10-2025 09:55:03</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thúy</t>
   </si>
 </sst>
 </file>
@@ -449,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C6"/>
@@ -567,6 +642,226 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BTLJavaFX/log.xlsx
+++ b/BTLJavaFX/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
   <si>
     <t>Time</t>
   </si>
@@ -152,6 +152,39 @@
   </si>
   <si>
     <t>Phạm Thị Thúy</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:16:01</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:19:55</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:27:53</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:28:08</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:29:01</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:30:26</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:31:24</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:32:43</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:33:46</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:34:33</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:35:00</t>
   </si>
 </sst>
 </file>
@@ -524,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C6"/>
@@ -862,6 +895,127 @@
         <v>5</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BTLJavaFX/log.xlsx
+++ b/BTLJavaFX/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
   <si>
     <t>Time</t>
   </si>
@@ -185,6 +185,30 @@
   </si>
   <si>
     <t>20-10-2025 10:35:00</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:44:25</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:48:01</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:53:17</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:56:17</t>
+  </si>
+  <si>
+    <t>20-10-2025 10:58:09</t>
+  </si>
+  <si>
+    <t>20-10-2025 11:19:47</t>
+  </si>
+  <si>
+    <t>20-10-2025 11:24:03</t>
+  </si>
+  <si>
+    <t>20-10-2025 11:28:10</t>
   </si>
 </sst>
 </file>
@@ -557,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C6"/>
@@ -1016,6 +1040,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BTLJavaFX/log.xlsx
+++ b/BTLJavaFX/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="546">
   <si>
     <t>Time</t>
   </si>
@@ -1049,6 +1049,615 @@
   </si>
   <si>
     <t>05-11-2025 19:24:12</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:35:39</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:36:09</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:36:24</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:42:34</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:43:03</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:43:50</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:44:54</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:48:12</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:48:39</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:49:44</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:49:50</t>
+  </si>
+  <si>
+    <t>Thiết lập thanh toán: 2908200599999 - Techcombank</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:49:53</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:49:58</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:50:05</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:50:07</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:52:14</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:56:20</t>
+  </si>
+  <si>
+    <t>06-11-2025 07:57:49</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:04:48</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:33:44</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:40:04</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:40:10</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:40:15</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:44:37</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:44:50</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:45:01</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:45:03</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:45:10</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:46:11</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:46:31</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: Vu Van Hoc (Staff), ID = hocvv3</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:46:38</t>
+  </si>
+  <si>
+    <t>Thay đổi mật khẩu cho Vu Van Hoc</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:47:00</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:52:11</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:52:15</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:52:22</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:55:16</t>
+  </si>
+  <si>
+    <t>06-11-2025 08:55:47</t>
+  </si>
+  <si>
+    <t>06-11-2025 09:07:04</t>
+  </si>
+  <si>
+    <t>06-11-2025 09:08:30</t>
+  </si>
+  <si>
+    <t>06-11-2025 09:08:54</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: Vu Van Hoc (Staff), ID = hocvv4</t>
+  </si>
+  <si>
+    <t>06-11-2025 09:08:57</t>
+  </si>
+  <si>
+    <t>06-11-2025 09:09:10</t>
+  </si>
+  <si>
+    <t>06-11-2025 09:16:44</t>
+  </si>
+  <si>
+    <t>10-11-2025 09:53:56</t>
+  </si>
+  <si>
+    <t>10-11-2025 09:54:06</t>
+  </si>
+  <si>
+    <t>10-11-2025 09:54:11</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:00:13</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:00:20</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:00:27</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:00:31</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:04:35</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:06:24</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:08:18</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:09:29</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:11:39</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:20:21</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:20:25</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:20:26</t>
+  </si>
+  <si>
+    <t>Xóa nhân viên: Doan Ngoc Bao</t>
+  </si>
+  <si>
+    <t>Xóa nhân viên: Phan Viet Bao</t>
+  </si>
+  <si>
+    <t>Xóa nhân viên: Trinh Quoc Cuong</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:20:27</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:20:29</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:20:48</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:20:57</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:22:29</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:22:52</t>
+  </si>
+  <si>
+    <t>Thay đổi mật khẩu cho 1</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:22:54</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:23:05</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:23:11</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:23:12</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:23:19</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:28:14</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:28:19</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:28:20</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:28:25</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:31:05</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:31:10</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: sdfs (Staff), ID = sdfs</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:31:24</t>
+  </si>
+  <si>
+    <t>Xóa nhân viên: sdfs</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:34:05</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:34:13</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: 1 (Manager), ID = 12</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:34:17</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:34:23</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:34:26</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:34:30</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:34:33</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:36:30</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:36:35</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:36:48</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:36:56</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:37:05</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:37:08</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:37:17</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:37:25</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: Trinh Quoc Cuong (Staff), ID = cuongtq</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:39:49</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:39:55</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:40:04</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:40:29</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:40:32</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:40:33</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:40:43</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:42:44</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:42:46</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:43:29</t>
+  </si>
+  <si>
+    <t>Phan Viet Bao</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:47:00</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:47:06</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:47:16</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: Vu Van HOc (Manager), ID = hocvv</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:47:20</t>
+  </si>
+  <si>
+    <t>Xóa nhân viên: Vu Van HOc</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:47:52</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:47:56</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:47:58</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:49:31</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:50:21</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:50:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm nhân viên:  (Staff), ID = </t>
+  </si>
+  <si>
+    <t>10-11-2025 10:51:38</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: Vu Van hOc (Staff), ID = hocvv</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:52:25</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:52:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xóa nhân viên: </t>
+  </si>
+  <si>
+    <t>10-11-2025 10:54:32</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:55:16</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:55:36</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: Vu Van Hoc (Manager), ID = hocvv2</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:55:37</t>
+  </si>
+  <si>
+    <t>Xóa nhân viên: Vu Van hOc</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:55:45</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:55:46</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:55:47</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:55:55</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:56:02</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:56:10</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:56:22</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:56:23</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:56:43</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: trinh quoc cuong (Staff), ID = cuongtq</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:56:49</t>
+  </si>
+  <si>
+    <t>Xóa nhân viên: trinh quoc cuong</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:56:58</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:57:02</t>
+  </si>
+  <si>
+    <t>10-11-2025 10:57:18</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:01:53</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:02:30</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:02:47</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:02:50</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:02:52</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:05:34</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:05:38</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:05:52</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:05:59</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:07:19</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:10:40</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:28:25</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:33:47</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:34:27</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên: 22 (Staff), ID = 22</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:34:29</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:34:33</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:34:55</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:46:14</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:47:37</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:54:15</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:54:54</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:54:58</t>
+  </si>
+  <si>
+    <t>10-11-2025 11:55:01</t>
+  </si>
+  <si>
+    <t>11-11-2025 13:26:21</t>
+  </si>
+  <si>
+    <t>11-11-2025 13:26:28</t>
+  </si>
+  <si>
+    <t>11-11-2025 13:26:32</t>
+  </si>
+  <si>
+    <t>12-11-2025 21:01:48</t>
+  </si>
+  <si>
+    <t>12-11-2025 21:01:55</t>
+  </si>
+  <si>
+    <t>12-11-2025 21:02:07</t>
+  </si>
+  <si>
+    <t>12-11-2025 21:02:12</t>
+  </si>
+  <si>
+    <t>12-11-2025 21:02:29</t>
+  </si>
+  <si>
+    <t>12-11-2025 21:02:32</t>
+  </si>
+  <si>
+    <t>12-11-2025 21:02:36</t>
+  </si>
+  <si>
+    <t>12-11-2025 21:02:39</t>
+  </si>
+  <si>
+    <t>12-11-2025 21:02:43</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:09:02</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:09:30</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:15:56</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:30:51</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:35:24</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:35:49</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:35:52</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:36:05</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:36:07</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:36:13</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:36:31</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:44:27</t>
+  </si>
+  <si>
+    <t>12-11-2025 23:44:41</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +2030,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C6"/>
@@ -4740,6 +5349,2063 @@
         <v>5</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C448" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B449" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C449" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="B450" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C450" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B451" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C451" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="B452" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C452" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="B453" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C453" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="B454" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C454" t="s" s="0">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="B455" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C455" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="B456" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="C456" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B457" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C457" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="B458" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C458" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="B459" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C459" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="B460" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C460" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="B461" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C461" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="B462" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C462" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="B463" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C463" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="B464" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C464" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="B465" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C465" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="B466" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C466" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="B467" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C467" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="B468" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C468" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="B469" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C469" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="B470" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C470" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="B471" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C471" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="B472" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C472" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="B473" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C473" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="B474" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C474" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="B475" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="C475" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="B476" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="C476" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="B477" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C477" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="B478" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C478" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="B479" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C479" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="B480" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C480" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="B481" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C481" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="B482" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C482" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="B483" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C483" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="B484" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C484" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="B485" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C485" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="B486" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C486" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="B487" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C487" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="B488" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C488" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
